--- a/Parfume_prices_superph.xlsx
+++ b/Parfume_prices_superph.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -964,6 +964,111 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Joop!</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Homme</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>woda toaletowa</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>125 ml</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>114.99</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://www.superpharm.pl/joop-homme-314-125-ml-01353.html?gclid=EAIaIQobChMI3IeS6OmS_wIV0ESRBR301weYEAQYASABEgLjVPD_BwE</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>26.05.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Joop!</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Homme</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>woda toaletowa</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>125 ml</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>114.99</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://www.superpharm.pl/joop-homme-314-125-ml-01353.html?gclid=EAIaIQobChMI3IeS6OmS_wIV0ESRBR301weYEAQYASABEgLjVPD_BwE</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>26.05.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Joop!</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Homme</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>woda toaletowa</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>125 ml</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>114.99</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://www.superpharm.pl/joop-homme-314-125-ml-01353.html?gclid=EAIaIQobChMI3IeS6OmS_wIV0ESRBR301weYEAQYASABEgLjVPD_BwE</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>26.05.2023</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
